--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>int</t>
   </si>
@@ -27,7 +27,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>series</t>
+    <t>desc</t>
   </si>
   <si>
     <t>stackCount</t>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>测试用物品</t>
+  </si>
+  <si>
+    <t>DragonFruit</t>
+  </si>
+  <si>
+    <t>火龙果</t>
   </si>
 </sst>
 </file>
@@ -650,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -664,19 +670,16 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -778,13 +781,13 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="double">
           <color theme="4"/>
         </top>
-        <bottom/>
-        <diagonal/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -804,7 +807,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
         <horizontal style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </horizontal>
@@ -831,13 +834,13 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -846,15 +849,15 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -869,13 +872,13 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -889,13 +892,13 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -906,13 +909,13 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -938,15 +941,15 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -1572,7 +1575,7 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1603,7 +1606,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1615,26 +1618,26 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>64</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>222920</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1645,16 +1648,26 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1665,16 +1678,16 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1685,16 +1698,16 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1705,16 +1718,16 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1725,16 +1738,16 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1745,13 +1758,13 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1762,12 +1775,12 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1778,156 +1791,156 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="1">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="1">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="1">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="1">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="6"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1938,12 +1951,12 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="8"/>
+      <c r="A22" s="6"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1954,12 +1967,12 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1970,12 +1983,12 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="6"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1986,12 +1999,12 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="6"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2002,16 +2015,16 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2022,16 +2035,16 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2042,12 +2055,12 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2058,12 +2071,12 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2074,12 +2087,12 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="8"/>
+      <c r="A30" s="6"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="8"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2090,12 +2103,12 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="6"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2106,12 +2119,12 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="8"/>
+      <c r="A32" s="6"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="8"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2122,12 +2135,12 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="6"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2138,12 +2151,12 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="6"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="8"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2154,12 +2167,12 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="6"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="8"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2170,10 +2183,10 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="6"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2186,10 +2199,10 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="6"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2202,10 +2215,10 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="6"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2218,10 +2231,10 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="6"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2234,10 +2247,10 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="6"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2250,10 +2263,10 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="6"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2266,10 +2279,10 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="6"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2282,10 +2295,10 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="8"/>
+      <c r="A43" s="6"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2298,10 +2311,10 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="8"/>
+      <c r="A44" s="6"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>

--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>int</t>
   </si>
@@ -30,31 +30,28 @@
     <t>desc</t>
   </si>
   <si>
-    <t>stackCount</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
     <t xml:space="preserve">背包物品 ID</t>
   </si>
   <si>
-    <t>物品名称</t>
+    <t>名称</t>
   </si>
   <si>
-    <t>物品描述</t>
+    <t>描述</t>
   </si>
   <si>
-    <t>最大堆叠数量</t>
+    <t>图标</t>
   </si>
   <si>
     <t>Language</t>
   </si>
   <si>
-    <t>BagItemName0001</t>
+    <t>ExampleBagItemName0001</t>
   </si>
   <si>
-    <t>测试用物品</t>
+    <t>ExampleBagItemDesc0001</t>
   </si>
   <si>
     <t>DragonFruit</t>
@@ -73,7 +70,7 @@
     <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="163" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -212,11 +209,6 @@
       <sz val="10.000000"/>
       <name val="微软雅黑"/>
     </font>
-    <font>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="微软雅黑"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -670,6 +662,9 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -677,9 +672,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1487,22 +1479,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="0" width="10.875"/>
-    <col customWidth="1" min="2" max="2" style="1" width="16.633333333333301"/>
-    <col customWidth="1" min="3" max="3" style="1" width="10.7916666666667"/>
-    <col customWidth="1" min="4" max="5" style="1" width="16.0833333333333"/>
-    <col customWidth="1" min="6" max="6" width="10.7916666666667"/>
-    <col customWidth="1" min="7" max="7" style="0" width="16.0833333333333"/>
-    <col customWidth="1" min="8" max="8" style="0" width="15"/>
-    <col customWidth="1" min="9" max="9" style="0" width="17.1666666666667"/>
-    <col customWidth="1" min="10" max="10" style="0" width="16.258333333333301"/>
-    <col customWidth="1" min="11" max="11" style="0" width="42.850000000000001"/>
-    <col customWidth="1" min="12" max="12" style="0" width="13.658333333333299"/>
-    <col customWidth="1" min="13" max="13" style="0" width="16.0833333333333"/>
-    <col customWidth="1" min="14" max="14" style="0" width="23.350000000000001"/>
-    <col customWidth="1" min="15" max="15" style="0" width="51.216666666666697"/>
-    <col customWidth="1" min="16" max="18" style="0" width="17.1666666666667"/>
-    <col min="19" max="16384" style="0" width="10.875"/>
+    <col customWidth="1" min="1" max="1" style="0" width="18.625"/>
+    <col customWidth="1" min="2" max="3" style="1" width="40.625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="18.625"/>
+    <col customWidth="1" min="5" max="5" width="10.7916666666667"/>
+    <col customWidth="1" min="6" max="6" style="0" width="16.0833333333333"/>
+    <col customWidth="1" min="7" max="7" style="0" width="15"/>
+    <col customWidth="1" min="8" max="8" style="0" width="17.1666666666667"/>
+    <col customWidth="1" min="9" max="9" style="0" width="16.258333333333301"/>
+    <col customWidth="1" min="10" max="10" style="0" width="42.850000000000001"/>
+    <col customWidth="1" min="11" max="11" style="0" width="13.658333333333299"/>
+    <col customWidth="1" min="12" max="12" style="0" width="16.0833333333333"/>
+    <col customWidth="1" min="13" max="13" style="0" width="23.350000000000001"/>
+    <col customWidth="1" min="14" max="14" style="0" width="51.216666666666697"/>
+    <col customWidth="1" min="15" max="17" style="0" width="17.1666666666667"/>
+    <col min="18" max="16384" style="0" width="10.875"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1">
@@ -1516,24 +1507,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
     </row>
     <row r="2" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
@@ -1548,65 +1536,61 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="30">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1615,29 +1599,26 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="5">
-        <v>1</v>
+      <c r="A5" s="6">
+        <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>64</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="8">
         <v>222920</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1645,29 +1626,26 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>999</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1675,19 +1653,18 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1695,19 +1672,18 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1715,19 +1691,18 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1735,19 +1710,18 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1755,16 +1729,16 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1772,15 +1746,15 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
-      <c r="A12" s="6"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="7"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1788,159 +1762,155 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" s="1" customFormat="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" s="1" customFormat="1">
-      <c r="A15" s="6"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" s="1" customFormat="1">
-      <c r="A16" s="6"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1">
-      <c r="A17" s="6"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1">
-      <c r="A18" s="6"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="6"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1948,15 +1918,15 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="6"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1964,15 +1934,15 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="6"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1980,15 +1950,15 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="6"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1996,15 +1966,15 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="6"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="7"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="6"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2012,19 +1982,18 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2032,19 +2001,18 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="6"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2052,15 +2020,15 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="6"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="7"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="6"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2068,15 +2036,15 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="6"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="7"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="6"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2084,15 +2052,15 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="6"/>
-      <c r="F30" s="1"/>
+      <c r="A30" s="7"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="6"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2100,15 +2068,15 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="6"/>
-      <c r="F31" s="1"/>
+      <c r="A31" s="7"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="6"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2116,15 +2084,15 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="6"/>
-      <c r="F32" s="1"/>
+      <c r="A32" s="7"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="6"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2132,15 +2100,15 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="6"/>
-      <c r="F33" s="1"/>
+      <c r="A33" s="7"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="6"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2148,15 +2116,15 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="6"/>
-      <c r="F34" s="1"/>
+      <c r="A34" s="7"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="6"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2164,15 +2132,15 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="6"/>
-      <c r="F35" s="1"/>
+      <c r="A35" s="7"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="6"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2180,13 +2148,13 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="6"/>
-      <c r="F36" s="1"/>
+      <c r="A36" s="7"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2196,13 +2164,13 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="6"/>
-      <c r="F37" s="1"/>
+      <c r="A37" s="7"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="5"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2212,13 +2180,13 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="6"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2228,13 +2196,13 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="6"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2244,13 +2212,13 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="6"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2260,13 +2228,13 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="6"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2276,13 +2244,13 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="6"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2292,13 +2260,13 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="6"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2308,13 +2276,13 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="6"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="A44" s="7"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2324,9 +2292,9 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="15">
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2338,7 +2306,6 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>int</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>ExampleBagItemDesc0001</t>
+  </si>
+  <si>
+    <t>TestBagItemName0001</t>
+  </si>
+  <si>
+    <t>TestBagItemDesc0001</t>
   </si>
   <si>
     <t>DragonFruit</t>
@@ -648,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -661,9 +667,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1579,17 +1582,17 @@
     </row>
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1601,23 +1604,23 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>222920</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1631,20 +1634,20 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
+      <c r="D6" s="7">
+        <v>37708</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1655,15 +1658,23 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1674,15 +1685,15 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1693,15 +1704,15 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1712,15 +1723,15 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1731,13 +1742,13 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1748,12 +1759,12 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1764,152 +1775,152 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="1">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="1">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="1">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1920,12 +1931,12 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1936,12 +1947,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1952,12 +1963,12 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1968,12 +1979,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1984,15 +1995,15 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2003,15 +2014,15 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2022,12 +2033,12 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2038,12 +2049,12 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2054,12 +2065,12 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2070,12 +2081,12 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2086,12 +2097,12 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2102,12 +2113,12 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2118,12 +2129,12 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2134,12 +2145,12 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2150,10 +2161,10 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2166,10 +2177,10 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2182,10 +2193,10 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2198,10 +2209,10 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2214,10 +2225,10 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2230,10 +2241,10 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2246,10 +2257,10 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2262,10 +2273,10 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2278,10 +2289,10 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>

--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -13,12 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
   <si>
     <t>id</t>
@@ -33,6 +36,9 @@
     <t>icon</t>
   </si>
   <si>
+    <t>achievable</t>
+  </si>
+  <si>
     <t xml:space="preserve">背包物品 ID</t>
   </si>
   <si>
@@ -43,6 +49,9 @@
   </si>
   <si>
     <t>图标</t>
+  </si>
+  <si>
+    <t>可完成性</t>
   </si>
   <si>
     <t>Language</t>
@@ -654,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -664,6 +673,9 @@
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1512,7 +1524,9 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1528,18 +1542,20 @@
     </row>
     <row r="2" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1555,18 +1571,20 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="30">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1583,16 +1601,16 @@
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1604,23 +1622,25 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
         <v>222920</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1634,20 +1654,22 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8">
         <v>37708</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1658,23 +1680,25 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1685,15 +1709,15 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1704,15 +1728,15 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1723,15 +1747,15 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1742,13 +1766,13 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1759,12 +1783,12 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1775,152 +1799,152 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" s="1" customFormat="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" s="1" customFormat="1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" s="1" customFormat="1">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1931,12 +1955,12 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1947,12 +1971,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1963,12 +1987,12 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1979,12 +2003,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1995,15 +2019,15 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2014,15 +2038,15 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2033,12 +2057,12 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2049,12 +2073,12 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2065,12 +2089,12 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2081,12 +2105,12 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2097,12 +2121,12 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2113,12 +2137,12 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2129,12 +2153,12 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2145,12 +2169,12 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2161,10 +2185,10 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="7"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="5"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2177,10 +2201,10 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2193,10 +2217,10 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2209,10 +2233,10 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="7"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2225,10 +2249,10 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="7"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2241,10 +2265,10 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="6"/>
+      <c r="A41" s="7"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2257,10 +2281,10 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2273,10 +2297,10 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2289,10 +2313,10 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>

--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>int</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>火龙果</t>
+  </si>
+  <si>
+    <t>TestDragonName0001</t>
+  </si>
+  <si>
+    <t>TestDragonDesc0001</t>
   </si>
 </sst>
 </file>
@@ -663,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -673,9 +679,6 @@
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1524,7 +1527,7 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3"/>
@@ -1553,7 +1556,7 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3"/>
@@ -1573,16 +1576,16 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3"/>
@@ -1610,7 +1613,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1622,25 +1625,25 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>222920</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1654,22 +1657,22 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>37708</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1680,25 +1683,25 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1709,15 +1712,25 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1728,15 +1741,15 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1747,15 +1760,15 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1766,13 +1779,13 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1783,12 +1796,12 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1799,152 +1812,152 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="1">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="1">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="1">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1955,12 +1968,12 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1971,12 +1984,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1987,12 +2000,12 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2003,12 +2016,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2019,15 +2032,15 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2038,15 +2051,15 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2057,12 +2070,12 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2073,12 +2086,12 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2089,12 +2102,12 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2105,12 +2118,12 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2121,12 +2134,12 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2137,12 +2150,12 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2153,12 +2166,12 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2169,12 +2182,12 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2185,10 +2198,10 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2201,10 +2214,10 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2217,10 +2230,10 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2233,10 +2246,10 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2249,10 +2262,10 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2265,10 +2278,10 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2281,10 +2294,10 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2297,10 +2310,10 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2313,10 +2326,10 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>

--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3BA4C6-38E5-48BE-BB02-5E402621C191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE7089-6FE8-4B39-BCC7-0C6651C6D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="3165" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>int</t>
   </si>
@@ -91,16 +91,18 @@
     <t>DragonName00001</t>
   </si>
   <si>
+    <t>TestBagItemDesc0001</t>
+  </si>
+  <si>
     <t>DragonName00002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DragonName00003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DragonName00004</t>
-  </si>
-  <si>
-    <t>TestBagItemDesc0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +634,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -822,7 +824,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
         <v>108377</v>
@@ -840,10 +842,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
         <v>108377</v>
@@ -860,11 +862,11 @@
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
         <v>108377</v>
@@ -881,11 +883,11 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
         <v>108377</v>
@@ -899,10 +901,21 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -916,10 +929,21 @@
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -934,7 +958,21 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -949,7 +987,21 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -964,7 +1016,21 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -979,7 +1045,21 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -994,10 +1074,21 @@
       <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1012,10 +1103,21 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1030,55 +1132,161 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="7">
+        <v>108377</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="I28" s="6"/>

--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE7089-6FE8-4B39-BCC7-0C6651C6D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9689CA89-72EC-43C1-A01B-4771201CAEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3165" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -634,25 +634,25 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="3" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" customWidth="1"/>
+    <col min="2" max="3" width="40.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="6" max="6" width="16.09765625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="42.875" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="23.375" customWidth="1"/>
-    <col min="14" max="14" width="51.25" customWidth="1"/>
-    <col min="15" max="17" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="17.09765625" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="42.8984375" customWidth="1"/>
+    <col min="11" max="11" width="13.59765625" customWidth="1"/>
+    <col min="12" max="12" width="16.09765625" customWidth="1"/>
+    <col min="13" max="13" width="23.3984375" customWidth="1"/>
+    <col min="14" max="14" width="51.19921875" customWidth="1"/>
+    <col min="15" max="17" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>37708</v>
+        <v>267113</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>267114</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="7">
-        <v>108377</v>
+        <v>267112</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1382,7 +1382,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9689CA89-72EC-43C1-A01B-4771201CAEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4159753E-A050-4EB3-A2B4-F01E798F3C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>DragonName00001</t>
-  </si>
-  <si>
-    <t>TestBagItemDesc0001</t>
   </si>
   <si>
     <t>DragonName00002</t>
@@ -634,25 +631,25 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="3" width="40.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="3" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.09765625" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
-    <col min="10" max="10" width="42.8984375" customWidth="1"/>
-    <col min="11" max="11" width="13.59765625" customWidth="1"/>
-    <col min="12" max="12" width="16.09765625" customWidth="1"/>
-    <col min="13" max="13" width="23.3984375" customWidth="1"/>
-    <col min="14" max="14" width="51.19921875" customWidth="1"/>
-    <col min="15" max="17" width="17.09765625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="42.875" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="23.375" customWidth="1"/>
+    <col min="14" max="14" width="51.25" customWidth="1"/>
+    <col min="15" max="17" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -823,8 +820,8 @@
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="7">
         <v>108377</v>
@@ -844,8 +841,8 @@
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="7">
         <v>108377</v>
@@ -865,8 +862,8 @@
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="7">
         <v>108377</v>
@@ -886,8 +883,8 @@
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="7">
         <v>108377</v>
@@ -907,8 +904,8 @@
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="7">
         <v>108377</v>
@@ -933,9 +930,9 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="7">
@@ -962,9 +959,9 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="7">
@@ -991,9 +988,9 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="7">
@@ -1020,9 +1017,9 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="7">
@@ -1049,9 +1046,9 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="7">
@@ -1078,10 +1075,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="7">
         <v>108377</v>
@@ -1107,10 +1104,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="7">
         <v>108377</v>
@@ -1136,10 +1133,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D21" s="7">
         <v>108377</v>
@@ -1156,10 +1153,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D22" s="7">
         <v>108377</v>
@@ -1176,10 +1173,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="7">
         <v>108377</v>
@@ -1196,10 +1193,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="7">
         <v>108377</v>
@@ -1216,10 +1213,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="7">
         <v>108377</v>
@@ -1236,10 +1233,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D26" s="7">
         <v>108377</v>
@@ -1256,10 +1253,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D27" s="7">
         <v>108377</v>
@@ -1276,10 +1273,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="7">
         <v>108377</v>

--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4159753E-A050-4EB3-A2B4-F01E798F3C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5F608E-CE25-4602-B180-5A682C1729B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>int</t>
   </si>
@@ -101,6 +101,24 @@
   <si>
     <t>DragonName00004</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonName00009</t>
+  </si>
+  <si>
+    <t>DragonName00010</t>
+  </si>
+  <si>
+    <t>DragonName00005</t>
+  </si>
+  <si>
+    <t>DragonName00006</t>
+  </si>
+  <si>
+    <t>DragonName00007</t>
+  </si>
+  <si>
+    <t>DragonName00008</t>
   </si>
 </sst>
 </file>
@@ -631,7 +649,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +842,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>108377</v>
+        <v>269400</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -845,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>108377</v>
+        <v>269400</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -866,7 +884,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>108377</v>
+        <v>269400</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -887,7 +905,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>108377</v>
+        <v>269400</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -908,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>108377</v>
+        <v>269400</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -936,7 +954,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>108377</v>
+        <v>269394</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -965,7 +983,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="7">
-        <v>108377</v>
+        <v>269394</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -994,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>108377</v>
+        <v>269394</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1023,7 +1041,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>108377</v>
+        <v>269394</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1052,7 +1070,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>108377</v>
+        <v>269394</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1081,7 +1099,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>108377</v>
+        <v>269398</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1110,7 +1128,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>108377</v>
+        <v>269398</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1139,7 +1157,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="7">
-        <v>108377</v>
+        <v>269398</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1159,7 +1177,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>108377</v>
+        <v>269398</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1179,7 +1197,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="7">
-        <v>108377</v>
+        <v>269398</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1199,7 +1217,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>108377</v>
+        <v>269395</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1219,7 +1237,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="7">
-        <v>108377</v>
+        <v>269395</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1239,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>108377</v>
+        <v>269395</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1259,7 +1277,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="7">
-        <v>108377</v>
+        <v>269395</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1279,7 +1297,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="7">
-        <v>108377</v>
+        <v>269395</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1289,37 +1307,121 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1">
+        <v>269396</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1">
+        <v>269401</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="5"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <v>269397</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1">
+        <v>269403</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="5"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1">
+        <v>269402</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
+      <c r="A34" s="1">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1">
+        <v>269399</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="5"/>
       <c r="I34" s="6"/>

--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5F608E-CE25-4602-B180-5A682C1729B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B9A14-ADCE-457A-8733-C95CEA2DB374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>int</t>
   </si>
@@ -88,21 +99,6 @@
     <t>BagItemDesc0003</t>
   </si>
   <si>
-    <t>DragonName00001</t>
-  </si>
-  <si>
-    <t>DragonName00002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DragonName00003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DragonName00004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DragonName00009</t>
   </si>
   <si>
@@ -119,6 +115,66 @@
   </si>
   <si>
     <t>DragonName00008</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00001</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00002</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00003</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00004</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00005</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00006</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00007</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00008</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00009</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00010</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00011</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00012</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00013</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00014</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00015</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00016</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00017</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00018</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00019</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00020</t>
   </si>
 </sst>
 </file>
@@ -649,7 +705,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -836,10 +892,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
         <v>269400</v>
@@ -857,10 +913,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
         <v>269400</v>
@@ -878,10 +934,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
         <v>269400</v>
@@ -899,10 +955,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7">
         <v>269400</v>
@@ -920,10 +976,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
         <v>269400</v>
@@ -948,10 +1004,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
         <v>269394</v>
@@ -977,10 +1033,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
         <v>269394</v>
@@ -1006,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
         <v>269394</v>
@@ -1035,10 +1091,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
         <v>269394</v>
@@ -1064,10 +1120,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
         <v>269394</v>
@@ -1093,10 +1149,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7">
         <v>269398</v>
@@ -1122,10 +1178,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D20" s="7">
         <v>269398</v>
@@ -1151,10 +1207,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D21" s="7">
         <v>269398</v>
@@ -1171,10 +1227,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7">
         <v>269398</v>
@@ -1191,10 +1247,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D23" s="7">
         <v>269398</v>
@@ -1211,10 +1267,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D24" s="7">
         <v>269395</v>
@@ -1231,10 +1287,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D25" s="7">
         <v>269395</v>
@@ -1251,10 +1307,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D26" s="7">
         <v>269395</v>
@@ -1271,10 +1327,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D27" s="7">
         <v>269395</v>
@@ -1291,10 +1347,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D28" s="7">
         <v>269395</v>
@@ -1311,10 +1367,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1">
         <v>269396</v>
@@ -1331,10 +1387,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1">
         <v>269401</v>
@@ -1351,10 +1407,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1">
         <v>269397</v>
@@ -1371,10 +1427,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1">
         <v>269403</v>
@@ -1391,10 +1447,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1">
         <v>269402</v>
@@ -1411,10 +1467,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1">
         <v>269399</v>

--- a/Excels/BagItem_背包物品表.xlsx
+++ b/Excels/BagItem_背包物品表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B9A14-ADCE-457A-8733-C95CEA2DB374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAD5537-CE68-4B13-B984-0A249D02CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>int</t>
   </si>
@@ -99,24 +99,6 @@
     <t>BagItemDesc0003</t>
   </si>
   <si>
-    <t>DragonName00009</t>
-  </si>
-  <si>
-    <t>DragonName00010</t>
-  </si>
-  <si>
-    <t>DragonName00005</t>
-  </si>
-  <si>
-    <t>DragonName00006</t>
-  </si>
-  <si>
-    <t>DragonName00007</t>
-  </si>
-  <si>
-    <t>DragonName00008</t>
-  </si>
-  <si>
     <t>BoxingDragonName00001</t>
   </si>
   <si>
@@ -175,6 +157,96 @@
   </si>
   <si>
     <t>BoxingDragonName00020</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00021</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00022</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00023</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00024</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00025</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00026</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00027</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00028</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00029</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00030</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00031</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00032</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00033</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00034</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00035</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00036</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00037</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00038</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00039</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00040</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00041</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00042</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00043</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00044</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00045</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00046</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00047</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00048</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00049</t>
+  </si>
+  <si>
+    <t>BoxingDragonName00050</t>
   </si>
 </sst>
 </file>
@@ -702,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -892,10 +964,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
         <v>269400</v>
@@ -913,10 +985,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
         <v>269400</v>
@@ -934,10 +1006,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
         <v>269400</v>
@@ -955,10 +1027,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
         <v>269400</v>
@@ -976,10 +1048,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
         <v>269400</v>
@@ -1004,10 +1076,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
         <v>269394</v>
@@ -1033,10 +1105,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
         <v>269394</v>
@@ -1062,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
         <v>269394</v>
@@ -1091,10 +1163,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
         <v>269394</v>
@@ -1120,10 +1192,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
         <v>269394</v>
@@ -1149,10 +1221,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
         <v>269398</v>
@@ -1178,10 +1250,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7">
         <v>269398</v>
@@ -1207,10 +1279,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7">
         <v>269398</v>
@@ -1227,10 +1299,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7">
         <v>269398</v>
@@ -1247,10 +1319,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7">
         <v>269398</v>
@@ -1267,10 +1339,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7">
         <v>269395</v>
@@ -1287,10 +1359,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D25" s="7">
         <v>269395</v>
@@ -1307,10 +1379,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7">
         <v>269395</v>
@@ -1327,10 +1399,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D27" s="7">
         <v>269395</v>
@@ -1347,10 +1419,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D28" s="7">
         <v>269395</v>
@@ -1367,10 +1439,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1">
         <v>269396</v>
@@ -1387,13 +1459,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1">
-        <v>269401</v>
+        <v>269396</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1407,13 +1479,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1">
-        <v>269397</v>
+        <v>269396</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1427,13 +1499,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1">
-        <v>269403</v>
+        <v>269396</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1447,13 +1519,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1">
-        <v>269402</v>
+        <v>269396</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1467,13 +1539,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1">
-        <v>269399</v>
+        <v>269401</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1483,57 +1555,434 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="1">
+        <v>269401</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="5"/>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
+      <c r="A36" s="1">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1">
+        <v>269401</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="1">
+        <v>269401</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
+      <c r="A38" s="1">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="1">
+        <v>269401</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
+      <c r="A39" s="1">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1">
+        <v>269397</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="1">
+        <v>269397</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6"/>
+      <c r="A41" s="1">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1">
+        <v>269397</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6"/>
+      <c r="A42" s="1">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="1">
+        <v>269397</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6"/>
+      <c r="A43" s="1">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1">
+        <v>269397</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
+      <c r="A44" s="1">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="1">
+        <v>269403</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="1">
+        <v>269403</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>41</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="1">
+        <v>269403</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1">
+        <v>269403</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="1">
+        <v>269403</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="1">
+        <v>269402</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="1">
+        <v>269402</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>46</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1">
+        <v>269402</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>47</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1">
+        <v>269402</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>48</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="1">
+        <v>269402</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="1">
+        <v>269399</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>50</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="1">
+        <v>269399</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>51</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="1">
+        <v>269399</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>52</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="1">
+        <v>269399</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>53</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="1">
+        <v>269399</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
